--- a/laba 3/Results.xlsx
+++ b/laba 3/Results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Порядковий номер фахівця</t>
   </si>
@@ -41,15 +41,6 @@
   </si>
   <si>
     <t>x7</t>
-  </si>
-  <si>
-    <t>x8</t>
-  </si>
-  <si>
-    <t>x9</t>
-  </si>
-  <si>
-    <t>x10</t>
   </si>
   <si>
     <t>Сума рангів</t>
@@ -64,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,6 +118,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -190,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,9 +217,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,6 +252,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -431,14 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
@@ -446,34 +443,34 @@
     <col min="14" max="14" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -504,11 +501,11 @@
       <c r="K2" s="2">
         <v>10</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -516,377 +513,353 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>6</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-30</v>
+      </c>
+      <c r="N3" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-7</v>
+      </c>
+      <c r="N4" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="N6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>43</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1">
         <v>9</v>
       </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>10</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
       </c>
       <c r="K9" s="1">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6</v>
-      </c>
-      <c r="J10" s="1">
-        <v>8</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>8</v>
-      </c>
-      <c r="I12" s="1">
-        <v>9</v>
-      </c>
-      <c r="J12" s="1">
-        <v>7</v>
-      </c>
-      <c r="K12" s="1">
-        <v>4</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>60</v>
+      </c>
+      <c r="M9" s="1">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
